--- a/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Gnai2-Oprm1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,60 +534,60 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>194.832275183635</v>
+        <v>195.0792385</v>
       </c>
       <c r="H2">
-        <v>194.832275183635</v>
+        <v>390.158477</v>
       </c>
       <c r="I2">
-        <v>0.2678876068064914</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J2">
-        <v>0.2678876068064914</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.420695631019507</v>
+        <v>0.05215766666666666</v>
       </c>
       <c r="N2">
-        <v>0.420695631019507</v>
+        <v>0.156473</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="Q2">
-        <v>81.96508695134557</v>
+        <v>10.17487789527017</v>
       </c>
       <c r="R2">
-        <v>81.96508695134557</v>
+        <v>61.049267371621</v>
       </c>
       <c r="S2">
-        <v>0.2678876068064914</v>
+        <v>0.02667951200101175</v>
       </c>
       <c r="T2">
-        <v>0.2678876068064914</v>
+        <v>0.02002834701449002</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -599,57 +599,57 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>58.8030057710976</v>
+        <v>195.0792385</v>
       </c>
       <c r="H3">
-        <v>58.8030057710976</v>
+        <v>390.158477</v>
       </c>
       <c r="I3">
-        <v>0.08085208918389093</v>
+        <v>0.2640605522989327</v>
       </c>
       <c r="J3">
-        <v>0.08085208918389093</v>
+        <v>0.1982306263353075</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.420695631019507</v>
+        <v>0.464073</v>
       </c>
       <c r="N3">
-        <v>0.420695631019507</v>
+        <v>1.392219</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="Q3">
-        <v>24.73816761871562</v>
+        <v>90.53100744841051</v>
       </c>
       <c r="R3">
-        <v>24.73816761871562</v>
+        <v>543.1860446904631</v>
       </c>
       <c r="S3">
-        <v>0.08085208918389093</v>
+        <v>0.2373810402979209</v>
       </c>
       <c r="T3">
-        <v>0.08085208918389093</v>
+        <v>0.1782022793208175</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>142.756572049817</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H4">
-        <v>142.756572049817</v>
+        <v>187.223767</v>
       </c>
       <c r="I4">
-        <v>0.1962853249354044</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J4">
-        <v>0.1962853249354044</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.420695631019507</v>
+        <v>0.05215766666666666</v>
       </c>
       <c r="N4">
-        <v>0.420695631019507</v>
+        <v>0.156473</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="Q4">
-        <v>60.05706616067948</v>
+        <v>3.255051610421222</v>
       </c>
       <c r="R4">
-        <v>60.05706616067948</v>
+        <v>29.295464493791</v>
       </c>
       <c r="S4">
-        <v>0.1962853249354044</v>
+        <v>0.008535059525826351</v>
       </c>
       <c r="T4">
-        <v>0.1962853249354044</v>
+        <v>0.009610921704607804</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -723,57 +723,57 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>140.754469995774</v>
+        <v>62.40792233333334</v>
       </c>
       <c r="H5">
-        <v>140.754469995774</v>
+        <v>187.223767</v>
       </c>
       <c r="I5">
-        <v>0.1935325041959534</v>
+        <v>0.08447577797556809</v>
       </c>
       <c r="J5">
-        <v>0.1935325041959534</v>
+        <v>0.09512412720758515</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.420695631019507</v>
+        <v>0.464073</v>
       </c>
       <c r="N5">
-        <v>0.420695631019507</v>
+        <v>1.392219</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="Q5">
-        <v>59.21479057368841</v>
+        <v>28.961831740997</v>
       </c>
       <c r="R5">
-        <v>59.21479057368841</v>
+        <v>260.656485668973</v>
       </c>
       <c r="S5">
-        <v>0.1935325041959534</v>
+        <v>0.07594071844974173</v>
       </c>
       <c r="T5">
-        <v>0.1935325041959534</v>
+        <v>0.08551320550297734</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>137.199828146352</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H6">
-        <v>137.199828146352</v>
+        <v>428.586334</v>
       </c>
       <c r="I6">
-        <v>0.1886449951977736</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J6">
-        <v>0.1886449951977736</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.420695631019507</v>
+        <v>0.05215766666666666</v>
       </c>
       <c r="N6">
-        <v>0.420695631019507</v>
+        <v>0.156473</v>
       </c>
       <c r="O6">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="P6">
-        <v>1</v>
+        <v>0.1010355835763341</v>
       </c>
       <c r="Q6">
-        <v>57.71936827779747</v>
+        <v>7.451354382220222</v>
       </c>
       <c r="R6">
-        <v>57.71936827779747</v>
+        <v>67.06218943998199</v>
       </c>
       <c r="S6">
-        <v>0.1886449951977736</v>
+        <v>0.01953817045378482</v>
       </c>
       <c r="T6">
-        <v>0.1886449951977736</v>
+        <v>0.02200099787405137</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -847,52 +847,424 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>52.9449598765086</v>
+        <v>142.8621113333333</v>
       </c>
       <c r="H7">
-        <v>52.9449598765086</v>
+        <v>428.586334</v>
       </c>
       <c r="I7">
-        <v>0.07279747968048636</v>
+        <v>0.1933791023142199</v>
       </c>
       <c r="J7">
-        <v>0.07279747968048636</v>
+        <v>0.2177549443006804</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.420695631019507</v>
+        <v>0.464073</v>
       </c>
       <c r="N7">
-        <v>0.420695631019507</v>
+        <v>1.392219</v>
       </c>
       <c r="O7">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0.8989644164236659</v>
       </c>
       <c r="Q7">
-        <v>22.27371330455027</v>
+        <v>66.298448592794</v>
       </c>
       <c r="R7">
-        <v>22.27371330455027</v>
+        <v>596.686037335146</v>
       </c>
       <c r="S7">
-        <v>0.07279747968048636</v>
+        <v>0.1738409318604351</v>
       </c>
       <c r="T7">
-        <v>0.07279747968048636</v>
+        <v>0.195753946426629</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H8">
+        <v>424.850525</v>
+      </c>
+      <c r="I8">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J8">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.156473</v>
+      </c>
+      <c r="O8">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P8">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q8">
+        <v>7.38640402203611</v>
+      </c>
+      <c r="R8">
+        <v>66.477636198325</v>
+      </c>
+      <c r="S8">
+        <v>0.0193678643398601</v>
+      </c>
+      <c r="T8">
+        <v>0.02180922431678516</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>141.6168416666667</v>
+      </c>
+      <c r="H9">
+        <v>424.850525</v>
+      </c>
+      <c r="I9">
+        <v>0.1916934970264942</v>
+      </c>
+      <c r="J9">
+        <v>0.2158568649262854</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.464073</v>
+      </c>
+      <c r="N9">
+        <v>1.392219</v>
+      </c>
+      <c r="O9">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P9">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q9">
+        <v>65.720552562775</v>
+      </c>
+      <c r="R9">
+        <v>591.4849730649751</v>
+      </c>
+      <c r="S9">
+        <v>0.1723256326866341</v>
+      </c>
+      <c r="T9">
+        <v>0.1940476406095002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>143.783834</v>
+      </c>
+      <c r="H10">
+        <v>431.351502</v>
+      </c>
+      <c r="I10">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J10">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N10">
+        <v>0.156473</v>
+      </c>
+      <c r="O10">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P10">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q10">
+        <v>7.499429285827333</v>
+      </c>
+      <c r="R10">
+        <v>67.49486357244599</v>
+      </c>
+      <c r="S10">
+        <v>0.01966422749161224</v>
+      </c>
+      <c r="T10">
+        <v>0.02214294466624515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>143.783834</v>
+      </c>
+      <c r="H11">
+        <v>431.351502</v>
+      </c>
+      <c r="I11">
+        <v>0.1946267522348261</v>
+      </c>
+      <c r="J11">
+        <v>0.2191598631141254</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.464073</v>
+      </c>
+      <c r="N11">
+        <v>1.392219</v>
+      </c>
+      <c r="O11">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P11">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q11">
+        <v>66.726195195882</v>
+      </c>
+      <c r="R11">
+        <v>600.535756762938</v>
+      </c>
+      <c r="S11">
+        <v>0.1749625247432138</v>
+      </c>
+      <c r="T11">
+        <v>0.1970169184478802</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H12">
+        <v>106.034229</v>
+      </c>
+      <c r="I12">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J12">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.05215766666666666</v>
+      </c>
+      <c r="N12">
+        <v>0.156473</v>
+      </c>
+      <c r="O12">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="P12">
+        <v>0.1010355835763341</v>
+      </c>
+      <c r="Q12">
+        <v>2.7652489857195</v>
+      </c>
+      <c r="R12">
+        <v>16.591493914317</v>
+      </c>
+      <c r="S12">
+        <v>0.007250749764238822</v>
+      </c>
+      <c r="T12">
+        <v>0.005443148000154565</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>53.01711450000001</v>
+      </c>
+      <c r="H13">
+        <v>106.034229</v>
+      </c>
+      <c r="I13">
+        <v>0.07176431814995911</v>
+      </c>
+      <c r="J13">
+        <v>0.05387357411601602</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.464073</v>
+      </c>
+      <c r="N13">
+        <v>1.392219</v>
+      </c>
+      <c r="O13">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="P13">
+        <v>0.8989644164236659</v>
+      </c>
+      <c r="Q13">
+        <v>24.6038113773585</v>
+      </c>
+      <c r="R13">
+        <v>147.622868264151</v>
+      </c>
+      <c r="S13">
+        <v>0.06451356838572028</v>
+      </c>
+      <c r="T13">
+        <v>0.04843042611586145</v>
       </c>
     </row>
   </sheetData>
